--- a/meishu/WarOfCrystal_1230_2.xlsx
+++ b/meishu/WarOfCrystal_1230_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="2" r:id="rId1"/>
@@ -2451,6 +2451,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2467,9 +2470,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2793,10 +2793,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="89"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="7" t="s">
@@ -2985,10 +2985,10 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="89"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="7" t="s">
@@ -3636,7 +3636,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4173,8 +4173,7 @@
         <v>Bullet_3001_1</v>
       </c>
       <c r="K8">
-        <f>攻击!K8</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L8" t="str">
         <f>攻击!L8</f>
@@ -4352,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4981,8 +4980,7 @@
         <v>ASkill_3001_1</v>
       </c>
       <c r="M8">
-        <f>技能!M8</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N8" t="str">
         <f>技能!N8</f>
@@ -6122,7 +6120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -6544,10 +6542,10 @@
       <c r="Q1" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="88" t="s">
         <v>292</v>
       </c>
       <c r="T1" s="81" t="s">
@@ -7502,10 +7500,10 @@
       <c r="E14" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="90"/>
+      <c r="G14" s="91"/>
       <c r="R14" s="59"/>
       <c r="W14" s="59"/>
     </row>
@@ -7519,10 +7517,10 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="12"/>
       <c r="R15" s="59"/>
       <c r="W15" s="59"/>
@@ -7537,10 +7535,10 @@
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="12"/>
       <c r="R16" s="59"/>
       <c r="W16" s="59"/>
@@ -7555,10 +7553,10 @@
       <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="12"/>
       <c r="R17" s="59"/>
       <c r="W17" s="59"/>
@@ -9761,7 +9759,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(0,2*$Q$6)-$Q$6</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H2">
         <v>-1</v>
@@ -9772,7 +9770,7 @@
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -9808,7 +9806,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G51" ca="1" si="3">RANDBETWEEN(0,2*$Q$6)-$Q$6</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3">
         <v>-2</v>
@@ -9819,7 +9817,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J51" ca="1" si="5">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -9861,7 +9859,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -9872,7 +9870,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -9914,7 +9912,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -9925,7 +9923,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -9978,7 +9976,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -10031,7 +10029,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10078,7 +10076,7 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -10120,7 +10118,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -10131,7 +10129,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -10173,7 +10171,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -10226,7 +10224,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>-2</v>
@@ -10237,7 +10235,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -10279,7 +10277,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>-2</v>
@@ -10290,7 +10288,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -10332,7 +10330,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -10343,7 +10341,7 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -10385,7 +10383,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -10438,7 +10436,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -10449,7 +10447,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10491,7 +10489,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -10502,7 +10500,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -10544,7 +10542,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17">
         <v>-2</v>
@@ -10555,7 +10553,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10597,7 +10595,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -10608,7 +10606,7 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -10650,7 +10648,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -10661,7 +10659,7 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -10714,7 +10712,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10756,7 +10754,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>-2</v>
@@ -10767,7 +10765,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -10809,7 +10807,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>-2</v>
@@ -10820,7 +10818,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -10862,7 +10860,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>-2</v>
@@ -10873,7 +10871,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10915,7 +10913,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>-2</v>
@@ -10926,7 +10924,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -10968,7 +10966,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H25">
         <v>-2</v>
@@ -10979,7 +10977,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -11021,7 +11019,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -11032,7 +11030,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -11127,7 +11125,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -11138,7 +11136,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -11180,7 +11178,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -11233,7 +11231,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>-2</v>
@@ -11244,7 +11242,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -11286,7 +11284,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>-2</v>
@@ -11297,7 +11295,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11350,7 +11348,7 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -11403,7 +11401,7 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11445,7 +11443,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -11456,7 +11454,7 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -11498,7 +11496,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -11509,7 +11507,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -11551,7 +11549,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -11562,7 +11560,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -11604,7 +11602,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -11615,7 +11613,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -11657,7 +11655,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>-2</v>
@@ -11668,7 +11666,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11757,7 +11755,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -11804,7 +11802,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>-2</v>
@@ -11851,7 +11849,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -11862,7 +11860,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -11898,7 +11896,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H43">
         <v>-1</v>
@@ -11945,7 +11943,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>-1</v>
@@ -11956,7 +11954,7 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11992,7 +11990,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>-2</v>
@@ -12039,7 +12037,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -12050,7 +12048,7 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -12086,7 +12084,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -12097,7 +12095,7 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -12133,7 +12131,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>-2</v>
@@ -12144,7 +12142,7 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -12180,7 +12178,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -12191,7 +12189,7 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -12227,7 +12225,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H50">
         <v>-1</v>
@@ -12238,7 +12236,7 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -12274,7 +12272,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -12285,7 +12283,7 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -12326,14 +12324,14 @@
       <c r="C1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="21" t="s">
         <v>39</v>
       </c>
